--- a/_data/20131225 timeline/project-timeline.xlsx
+++ b/_data/20131225 timeline/project-timeline.xlsx
@@ -608,9 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:BY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1894,14 +1892,14 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
